--- a/sprint_backlog/sprint1/plan.xlsx
+++ b/sprint_backlog/sprint1/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ajg\Documents (D)\Repositories\CSCC01\Team5\sprint_backlog\sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A58BEE3-5233-4449-B3F8-458567660F6C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF870AA-34B3-4FB8-A7E8-74F2D1FE6F7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -202,6 +202,12 @@
   <si>
     <t>Sprint 1 Plan (Oct 16 - Oct 20)</t>
   </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +237,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,25 +268,24 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -312,24 +317,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,7 +749,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:I14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,397 +758,429 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="1025" width="8.28515625" customWidth="1"/>
+    <col min="5" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="J7" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>7</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>7</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
